--- a/biology/Botanique/Genêt_de_Villars/Genêt_de_Villars.xlsx
+++ b/biology/Botanique/Genêt_de_Villars/Genêt_de_Villars.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gen%C3%AAt_de_Villars</t>
+          <t>Genêt_de_Villars</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Genista pulchella 'subsp.' villarsii
 Le Genêt de Villars, ou Genista pulchella subsp. villarsii, est une plante montagnarde de l'Europe du sud qui pousse sur terrain calcaire.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gen%C3%AAt_de_Villars</t>
+          <t>Genêt_de_Villars</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genêt se trouve essentiellement sur les crêtes et les pentes arides des sols calcaires, il se reconnaît surtout à son port prostré et tortueux[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genêt se trouve essentiellement sur les crêtes et les pentes arides des sols calcaires, il se reconnaît surtout à son port prostré et tortueux.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gen%C3%AAt_de_Villars</t>
+          <t>Genêt_de_Villars</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il pousse dans les montagnes calcaires du sud de l'Europe, à une altitude qui se situe entre 400 et 1600 mètres[1]. En France, elle se trouve dans les Hautes-Alpes, les Alpes-de-Haute-Provence, le Var, le Vaucluse, la Drôme, l'Aveyron et l'Aude. Dans l'Europe du sud, ce genêt a colonisé les montagnes arides de Dalmatie, de l'Herzégovine et du Monténégro[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il pousse dans les montagnes calcaires du sud de l'Europe, à une altitude qui se situe entre 400 et 1600 mètres. En France, elle se trouve dans les Hautes-Alpes, les Alpes-de-Haute-Provence, le Var, le Vaucluse, la Drôme, l'Aveyron et l'Aude. Dans l'Europe du sud, ce genêt a colonisé les montagnes arides de Dalmatie, de l'Herzégovine et du Monténégro.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gen%C3%AAt_de_Villars</t>
+          <t>Genêt_de_Villars</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante vivace, qui atteint au maximum 30 centimètres, possède des feuilles velues sur les deux faces[1], elles sont simples, linéaires et lancéolées. Son port est tortueux et étalé[2].
-Elle fleurit de juin à août et sa corolle a un diamètre de 10 à 15 millimètres[1]. Ses fleurs sont solitaires et s'épanouissent en grappes très courtes. Munies d'un calice velu, à lèvres égales, elle fructifie en gousse de 12 à 15 millimètres sur 5 à 6 mm, portant de 2 à 4 graines[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante vivace, qui atteint au maximum 30 centimètres, possède des feuilles velues sur les deux faces, elles sont simples, linéaires et lancéolées. Son port est tortueux et étalé.
+Elle fleurit de juin à août et sa corolle a un diamètre de 10 à 15 millimètres. Ses fleurs sont solitaires et s'épanouissent en grappes très courtes. Munies d'un calice velu, à lèvres égales, elle fructifie en gousse de 12 à 15 millimètres sur 5 à 6 mm, portant de 2 à 4 graines.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gen%C3%AAt_de_Villars</t>
+          <t>Genêt_de_Villars</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est dédiée à D. Villars (1763-1814), un botaniste originaire du Dauphiné, auteur du livre Histoire des plantes du Dauphiné[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est dédiée à D. Villars (1763-1814), un botaniste originaire du Dauphiné, auteur du livre Histoire des plantes du Dauphiné.
 </t>
         </is>
       </c>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gen%C3%AAt_de_Villars</t>
+          <t>Genêt_de_Villars</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,9 +657,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est aussi connue sous d'autres noms vernaculaires. Outre le genêt de Villars, elle est aussi dénommée genêt joli[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est aussi connue sous d'autres noms vernaculaires. Outre le genêt de Villars, elle est aussi dénommée genêt joli.
 </t>
         </is>
       </c>
